--- a/data/updateRegionShippingFee_api.xlsx
+++ b/data/updateRegionShippingFee_api.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,13 +555,14 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="77.625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="35.5" customWidth="1"/>
     <col min="8" max="8" width="51.25" customWidth="1"/>

--- a/data/updateRegionShippingFee_api.xlsx
+++ b/data/updateRegionShippingFee_api.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,11 +126,6 @@
   </si>
   <si>
     <t>"message": "第[0]组数据parent_sku(e)不存在"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select old_goods_id from goods
- where merchant_id='13'  and is_delete='0'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,6 +181,11 @@
 }
  ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select old_goods_id from goods
+ where merchant_id='13'  and is_delete='0' and is_on_sale='1'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,19 +621,19 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>22</v>
@@ -665,10 +665,10 @@
         <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>22</v>
@@ -697,7 +697,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>22</v>
